--- a/biology/Biochimie/Méthionyl-ARNt_formyltransférase/Méthionyl-ARNt_formyltransférase.xlsx
+++ b/biology/Biochimie/Méthionyl-ARNt_formyltransférase/Méthionyl-ARNt_formyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thionyl-ARNt_formyltransf%C3%A9rase</t>
+          <t>Méthionyl-ARNt_formyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionyl-ARNt formyltransférase (EC 2.1.2.9) est une enzyme qui catalyse la réaction suivante : 
 10-formyltétrahydrofolate + L-méthionyl-ARNtfMet + H2O 
@@ -488,8 +500,8 @@
     {\displaystyle \rightleftharpoons }
  tétrahydrofolate + N-formylméthionyl-ARNtfMet
 Cette enzyme appartient à la famille des transférases qui transfèrent des groupes à un carbone, en particulier les transférases hydroxyméthyl-, formyl- et apparentées. Le nom systématique de cette classe d'enzymes est 10-formyltétrahydrofolate:L-méthionyl-ARNt N-formyltransférase. D'autres noms d'usage courant incluent N10-formyltétrahydrofolique-méthionyl-transfert ribonucléique, transformylase, formylméthionyl-transfert ribonucléique synthétase, méthionyl ribonucléique formyltransférase, méthionyl-tRNA Met formyltransférase, méthionyl-tRNA transformylase, méthionyl-ARNt-transformylase et la transformylase ribonucléique à transfert de méthionyle. Cette enzyme participe à 3 voies métaboliques : le métabolisme de la méthionine, formation d'un pool de carbone par le folate et la biosynthèse de l'aminoacyl-ARNtfMet.
-Chez les bactéries, le processus de formylation de la méthionine de l'ARNt initiateur fMet, n'est pas essentielle pour la survie. Cependant son inactivation induit un défaut de croissance important et modifie la morphologie des colonies[1]. 
-La protéine permettant le processus de formylation chez Escherichia coli s'appelle Fmt et est codée par le gène fmt [2].
+Chez les bactéries, le processus de formylation de la méthionine de l'ARNt initiateur fMet, n'est pas essentielle pour la survie. Cependant son inactivation induit un défaut de croissance important et modifie la morphologie des colonies. 
+La protéine permettant le processus de formylation chez Escherichia coli s'appelle Fmt et est codée par le gène fmt .
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thionyl-ARNt_formyltransf%C3%A9rase</t>
+          <t>Méthionyl-ARNt_formyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Études structurelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, deux structures avaient été élucidées pour cette classe d'enzymes, avec les numéros d'accession PDB : 1FMT et 2FMT.
 </t>
